--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/PORTFOLIO/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC10538E-1DF6-8E4A-8CC4-9B2A6C57A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A8AAE-A3E7-3240-854F-24B1150A20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>X SLAM</t>
+  </si>
+  <si>
+    <t>Referencement du site sur un navigateur web</t>
+  </si>
+  <si>
+    <t>TP Apache2 sur Ubuntu</t>
+  </si>
+  <si>
+    <t>14/03/2024 - 28/03/2024</t>
   </si>
 </sst>
 </file>
@@ -767,15 +776,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,54 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,8 +1176,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1185,56 +1194,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="37"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1246,22 +1255,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1284,8 +1293,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1341,16 +1350,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1388,22 +1397,22 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I9"/>
@@ -1443,22 +1452,22 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="47" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I10"/>
@@ -1498,26 +1507,26 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="47"/>
+      <c r="C11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="25"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1555,24 +1564,24 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="50" t="s">
+      <c r="C12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="F12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1610,24 +1619,24 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="47"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1665,22 +1674,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="47"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="25"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1718,24 +1727,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="47"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="25"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1773,22 +1782,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="25"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1826,14 +1837,26 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="25"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1873,12 +1896,12 @@
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1916,16 +1939,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1966,25 +1989,25 @@
       <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="47"/>
+      <c r="C20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="25"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2025,25 +2048,25 @@
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="47"/>
+      <c r="C21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="25"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2084,23 +2107,23 @@
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="47"/>
+      <c r="C22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="25"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2141,25 +2164,25 @@
       <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="47"/>
+      <c r="C23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="25"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2197,16 +2220,26 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="25"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2246,12 +2279,12 @@
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2291,12 +2324,12 @@
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2334,16 +2367,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2788,11 +2821,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2800,6 +2828,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/PORTFOLIO/WassimElArche.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/Informatique/portFolio/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A8AAE-A3E7-3240-854F-24B1150A20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97878BE-6687-8344-9EF5-F3E2E7CC9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="760" windowWidth="25200" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -98,9 +98,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>NOM et prénom : El Arche Wassim</t>
   </si>
   <si>
@@ -137,16 +131,10 @@
     <t>AP Personnel</t>
   </si>
   <si>
-    <t xml:space="preserve">07/10/2024 - </t>
-  </si>
-  <si>
     <t>10/10/2023 -</t>
   </si>
   <si>
     <t>AP Parking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/09/2024 - </t>
   </si>
   <si>
     <t>X</t>
@@ -238,6 +226,45 @@
   </si>
   <si>
     <t>14/03/2024 - 28/03/2024</t>
+  </si>
+  <si>
+    <t>MCD et Maquette</t>
+  </si>
+  <si>
+    <t>07/10/2024 - 11/04/2025</t>
+  </si>
+  <si>
+    <t>16/09/2024 - 11/04/2025</t>
+  </si>
+  <si>
+    <t>06/01/2025 - 07/02/2025</t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>TP STARTUP</t>
+  </si>
+  <si>
+    <t>Système d'authentification</t>
+  </si>
+  <si>
+    <t>Création de la base de données (Seeder , Model...)</t>
+  </si>
+  <si>
+    <t>Création des controllers/Routes/Middleware (Document,Imprimante,Admin)</t>
+  </si>
+  <si>
+    <t>Création des politiques (Policies)</t>
+  </si>
+  <si>
+    <t>Création du docker-compose et dockerFile</t>
+  </si>
+  <si>
+    <t>Création du systeme d'envoie de mail en arrière plan (queue)</t>
+  </si>
+  <si>
+    <t>N° candidat : 1845885491</t>
   </si>
 </sst>
 </file>
@@ -429,21 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -706,6 +718,21 @@
       </top>
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494529"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494529"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF494529"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF494529"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -737,23 +764,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,16 +785,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -782,13 +803,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,71 +821,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1176,13 +1200,13 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
@@ -1203,7 +1227,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H1" s="29"/>
     </row>
@@ -1220,58 +1244,58 @@
       <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="37"/>
+      <c r="A3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="48"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>49</v>
+      <c r="H4" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
+      <c r="A5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>19</v>
+      <c r="B6" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1293,8 +1317,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1350,16 +1374,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1397,23 +1421,23 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
-        <v>35</v>
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1452,23 +1476,23 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>35</v>
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1507,26 +1531,26 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="A11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1564,24 +1588,24 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="A12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1619,24 +1643,24 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="A13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1674,22 +1698,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="A14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1727,24 +1751,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="25"/>
+      <c r="A15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="23"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1782,24 +1806,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="25"/>
+      <c r="B16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1837,26 +1861,26 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="25"/>
+      <c r="A17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1894,14 +1918,26 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>31</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1939,16 +1975,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="A19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1987,27 +2023,27 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="23"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2046,27 +2082,27 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="23"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2105,25 +2141,25 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="23"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2162,27 +2198,27 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="25"/>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2221,25 +2257,25 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="23"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2279,12 +2315,12 @@
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2324,12 +2360,12 @@
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2367,16 +2403,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="A27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2414,14 +2450,24 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2459,14 +2505,24 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2504,14 +2560,26 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="15"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2549,14 +2617,26 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2594,14 +2674,24 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2639,14 +2729,26 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="A33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2684,14 +2786,26 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="17"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2728,15 +2842,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2774,7 +2880,16 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:43" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2821,6 +2936,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2828,11 +2948,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/Informatique/portFolio/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97878BE-6687-8344-9EF5-F3E2E7CC9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB737D8D-25E2-A844-991B-A36D8C7C7E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="760" windowWidth="25200" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,31 +122,16 @@
     <t>Création du PortFolio</t>
   </si>
   <si>
-    <t xml:space="preserve">TP Sucrerie </t>
-  </si>
-  <si>
     <t>22/11/2024 - 06/11/2024</t>
   </si>
   <si>
-    <t>AP Personnel</t>
-  </si>
-  <si>
     <t>10/10/2023 -</t>
   </si>
   <si>
-    <t>AP Parking</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>TP Client Facture</t>
-  </si>
-  <si>
     <t>10/10/2024 - 20/10/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP Seven </t>
   </si>
   <si>
     <t>TP Calculatrice RPN Laravel</t>
@@ -243,9 +228,6 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>TP STARTUP</t>
-  </si>
-  <si>
     <t>Système d'authentification</t>
   </si>
   <si>
@@ -265,6 +247,24 @@
   </si>
   <si>
     <t>N° candidat : 1845885491</t>
+  </si>
+  <si>
+    <t>TP Sucrerie SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Personnel Java </t>
+  </si>
+  <si>
+    <t>AP Parking Laravel</t>
+  </si>
+  <si>
+    <t>TP Client Facture Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP STARTUP </t>
+  </si>
+  <si>
+    <t>TP windows 7 VMWARE</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1227,7 +1227,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="29"/>
     </row>
@@ -1252,7 +1252,7 @@
       <c r="D3" s="42"/>
       <c r="E3" s="43"/>
       <c r="F3" s="47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="48"/>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1425,19 +1425,19 @@
         <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1480,19 +1480,19 @@
         <v>25</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1532,23 +1532,23 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11"/>
@@ -1589,20 +1589,20 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
@@ -1644,21 +1644,21 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13"/>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14"/>
@@ -1752,21 +1752,21 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15"/>
@@ -1807,21 +1807,21 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16"/>
@@ -1862,23 +1862,23 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17"/>
@@ -1919,24 +1919,24 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="22"/>
       <c r="D18" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2023,25 +2023,25 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20"/>
@@ -2082,25 +2082,25 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21"/>
@@ -2141,23 +2141,23 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22"/>
@@ -2198,25 +2198,25 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23"/>
@@ -2257,23 +2257,23 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24"/>
@@ -2451,20 +2451,20 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -2506,20 +2506,20 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -2561,23 +2561,23 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30"/>
@@ -2618,23 +2618,23 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31"/>
@@ -2675,20 +2675,20 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -2730,23 +2730,23 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33"/>
@@ -2787,23 +2787,23 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34"/>

--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/Informatique/portFolio/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB737D8D-25E2-A844-991B-A36D8C7C7E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81803719-BBE9-7A4C-B831-A11F1EC0B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="760" windowWidth="25200" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -266,6 +266,9 @@
   <si>
     <t>TP windows 7 VMWARE</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 12/2024 - 03/2025</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -341,6 +344,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,11 +754,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,15 +839,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,36 +908,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1200,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1218,56 +1240,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1279,22 +1301,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1317,8 +1339,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1374,16 +1396,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1531,7 +1553,7 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -1588,7 +1610,7 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1643,7 +1665,7 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1751,7 +1773,7 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1806,7 +1828,7 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1861,7 +1883,7 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1921,21 +1943,23 @@
       <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="49" t="s">
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I18"/>
@@ -1975,16 +1999,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2022,7 +2046,7 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -2081,7 +2105,7 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -2140,7 +2164,7 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="50" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2197,7 +2221,7 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="50" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -2256,7 +2280,7 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="50" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2403,16 +2427,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2450,24 +2474,24 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="F28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2505,20 +2529,20 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="27" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="14"/>
@@ -2560,23 +2584,23 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="15"/>
@@ -2617,23 +2641,23 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="15"/>
@@ -2674,20 +2698,20 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="27" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="14"/>
@@ -2729,23 +2753,23 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H33" s="15"/>
@@ -2786,23 +2810,23 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="49" t="s">
+      <c r="F34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H34" s="17"/>
@@ -2936,11 +2960,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2948,8 +2967,23 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{84E61BC7-D539-FF48-BA3D-E313250730AF}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{8E6FDBB4-CBA4-1B47-B241-ABD186179F92}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{4001CAF3-EF08-0542-9D3D-DF3B9DD51B3C}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{D3E795EF-21A6-424E-938F-08336DC9C90A}"/>
+    <hyperlink ref="A16" r:id="rId5" xr:uid="{1E009DB2-78E5-2942-9EB9-AF8BF2EEFE67}"/>
+    <hyperlink ref="A17" r:id="rId6" xr:uid="{22D4BFE5-C75C-A345-B2FF-657D480174B5}"/>
+    <hyperlink ref="A20:A24" r:id="rId7" display="Création et mise en forme du site avec Wix" xr:uid="{0B51FA66-FBBE-FD4A-8FFB-75CC89396E3A}"/>
+    <hyperlink ref="A28:A34" r:id="rId8" display="MCD et Maquette" xr:uid="{2A02AB6D-2C8D-894A-B590-B61F83A91468}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>

--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/Informatique/portFolio/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81803719-BBE9-7A4C-B831-A11F1EC0B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978C653-1005-3642-A327-427529187BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="760" windowWidth="25200" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>22/11/2024 - 06/11/2024</t>
-  </si>
-  <si>
-    <t>10/10/2023 -</t>
   </si>
   <si>
     <t>X</t>
@@ -269,6 +266,9 @@
   <si>
     <t xml:space="preserve"> 12/2024 - 03/2025</t>
   </si>
+  <si>
+    <t xml:space="preserve">10/10/2023 - </t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,6 +358,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -759,7 +766,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -909,6 +916,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1249,7 +1259,7 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="28"/>
     </row>
@@ -1274,7 +1284,7 @@
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
       <c r="F3" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="36"/>
@@ -1297,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1447,19 +1457,19 @@
         <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1498,23 +1508,23 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1554,23 +1564,23 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11"/>
@@ -1611,20 +1621,20 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
@@ -1666,21 +1676,21 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13"/>
@@ -1721,19 +1731,19 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14"/>
@@ -1774,21 +1784,21 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15"/>
@@ -1829,21 +1839,21 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16"/>
@@ -1884,23 +1894,23 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17"/>
@@ -1940,27 +1950,27 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>60</v>
+      <c r="A18" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2047,25 +2057,25 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20"/>
@@ -2106,25 +2116,25 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21"/>
@@ -2165,23 +2175,23 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22"/>
@@ -2222,25 +2232,25 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23"/>
@@ -2281,23 +2291,23 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24"/>
@@ -2475,20 +2485,20 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -2530,20 +2540,20 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -2585,23 +2595,23 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30"/>
@@ -2642,23 +2652,23 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31"/>
@@ -2699,20 +2709,20 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -2754,23 +2764,23 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33"/>
@@ -2811,23 +2821,23 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34"/>
@@ -2983,6 +2993,8 @@
     <hyperlink ref="A17" r:id="rId6" xr:uid="{22D4BFE5-C75C-A345-B2FF-657D480174B5}"/>
     <hyperlink ref="A20:A24" r:id="rId7" display="Création et mise en forme du site avec Wix" xr:uid="{0B51FA66-FBBE-FD4A-8FFB-75CC89396E3A}"/>
     <hyperlink ref="A28:A34" r:id="rId8" display="MCD et Maquette" xr:uid="{2A02AB6D-2C8D-894A-B590-B61F83A91468}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{109EB7CB-9957-0849-972B-AC39E0BAB0C3}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{5087A0C7-8908-5B4E-B952-F802DBEE9FD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wassimsevran/Desktop/Informatique/portFolio/WassimElArche.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978C653-1005-3642-A327-427529187BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CCE9C-DD7B-354D-B30F-AB4B08FAEFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="760" windowWidth="25200" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -827,9 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,7 +1230,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1250,56 +1247,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1311,22 +1308,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1349,8 +1346,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1406,16 +1403,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1453,22 +1450,22 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I9"/>
@@ -1508,22 +1505,22 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I10"/>
@@ -1563,26 +1560,26 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="23"/>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="22"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1620,24 +1617,24 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1675,24 +1672,24 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1730,22 +1727,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1783,24 +1780,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="22"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1838,24 +1835,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1893,26 +1890,26 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="23"/>
+      <c r="C17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="22"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1950,26 +1947,26 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="27" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="I18"/>
@@ -2009,16 +2006,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2056,28 +2053,28 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="C20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="22"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2115,28 +2112,28 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="C21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="22"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2174,26 +2171,26 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="23"/>
+      <c r="C22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2231,28 +2228,28 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="23"/>
+      <c r="C23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="22"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2290,26 +2287,26 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="22"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2349,12 +2346,12 @@
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2394,12 +2391,12 @@
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2437,16 +2434,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2484,24 +2481,24 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="F28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2539,20 +2536,20 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="14"/>
@@ -2594,23 +2591,23 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="27" t="s">
+      <c r="F30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="15"/>
@@ -2651,23 +2648,23 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="15"/>
@@ -2708,20 +2705,20 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="14"/>
@@ -2763,23 +2760,23 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="15"/>
@@ -2820,23 +2817,23 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="17"/>
@@ -2995,6 +2992,8 @@
     <hyperlink ref="A28:A34" r:id="rId8" display="MCD et Maquette" xr:uid="{2A02AB6D-2C8D-894A-B590-B61F83A91468}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{109EB7CB-9957-0849-972B-AC39E0BAB0C3}"/>
     <hyperlink ref="A18" r:id="rId10" xr:uid="{5087A0C7-8908-5B4E-B952-F802DBEE9FD0}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{76201322-24A8-6C44-BE1A-E4AA42CCBF6F}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{0AD541F0-A6CA-7A43-9ADD-55597D803BDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
